--- a/team_specific_matrix/San Jose St._B.xlsx
+++ b/team_specific_matrix/San Jose St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2122448979591837</v>
+        <v>0.2172523961661342</v>
       </c>
       <c r="C2">
-        <v>0.5061224489795918</v>
+        <v>0.5111821086261981</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01224489795918367</v>
+        <v>0.01916932907348243</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1673469387755102</v>
+        <v>0.1597444089456869</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1020408163265306</v>
+        <v>0.0926517571884984</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02380952380952381</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="C3">
-        <v>0.02380952380952381</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02380952380952381</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7301587301587301</v>
+        <v>0.7361963190184049</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1984126984126984</v>
+        <v>0.196319018404908</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3714285714285714</v>
+        <v>0.3260869565217391</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08695652173913043</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02173913043478261</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2608695652173913</v>
+        <v>0.2789473684210526</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02173913043478261</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2028985507246377</v>
+        <v>0.1736842105263158</v>
       </c>
       <c r="R6">
-        <v>0.108695652173913</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="S6">
-        <v>0.2971014492753623</v>
+        <v>0.2842105263157895</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1057692307692308</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02884615384615385</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08653846153846154</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2019230769230769</v>
+        <v>0.1838235294117647</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03846153846153846</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.125</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="R7">
-        <v>0.08653846153846154</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="S7">
-        <v>0.3269230769230769</v>
+        <v>0.3308823529411765</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09717868338557993</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01567398119122257</v>
+        <v>0.01699029126213592</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03761755485893417</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1003134796238244</v>
+        <v>0.09951456310679611</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0219435736677116</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.219435736677116</v>
+        <v>0.2111650485436893</v>
       </c>
       <c r="R8">
-        <v>0.1128526645768025</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="S8">
-        <v>0.3949843260188088</v>
+        <v>0.3907766990291262</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05555555555555555</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0308641975308642</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08641975308641975</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1172839506172839</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01234567901234568</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2345679012345679</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R9">
-        <v>0.08641975308641975</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="S9">
-        <v>0.3765432098765432</v>
+        <v>0.3476190476190476</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1402714932126697</v>
+        <v>0.128337639965547</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02601809954751131</v>
+        <v>0.02583979328165375</v>
       </c>
       <c r="E10">
-        <v>0.004524886877828055</v>
+        <v>0.003445305770887166</v>
       </c>
       <c r="F10">
-        <v>0.06221719457013575</v>
+        <v>0.06546080964685616</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1074660633484163</v>
+        <v>0.1042204995693368</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01018099547511312</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2251131221719457</v>
+        <v>0.2213608957795004</v>
       </c>
       <c r="R10">
-        <v>0.09389140271493213</v>
+        <v>0.0913006029285099</v>
       </c>
       <c r="S10">
-        <v>0.330316742081448</v>
+        <v>0.3445305770887166</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1146496815286624</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1528662420382166</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="K11">
-        <v>0.2101910828025478</v>
+        <v>0.2060301507537688</v>
       </c>
       <c r="L11">
-        <v>0.5159235668789809</v>
+        <v>0.5276381909547738</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006369426751592357</v>
+        <v>0.01005025125628141</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7241379310344828</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1954022988505747</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="K12">
-        <v>0.01149425287356322</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="L12">
-        <v>0.03448275862068965</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03448275862068965</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7878787878787878</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1212121212121212</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006622516556291391</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1589403973509934</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="I15">
-        <v>0.09271523178807947</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.4105960264900662</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K15">
-        <v>0.01324503311258278</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01324503311258278</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04635761589403974</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2582781456953642</v>
+        <v>0.2696078431372549</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0130718954248366</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1699346405228758</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="I16">
-        <v>0.05882352941176471</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="J16">
-        <v>0.4248366013071895</v>
+        <v>0.4234693877551021</v>
       </c>
       <c r="K16">
-        <v>0.08496732026143791</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0392156862745098</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06535947712418301</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1437908496732026</v>
+        <v>0.1683673469387755</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02034883720930233</v>
+        <v>0.018140589569161</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1918604651162791</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="I17">
-        <v>0.1424418604651163</v>
+        <v>0.1383219954648526</v>
       </c>
       <c r="J17">
-        <v>0.3982558139534884</v>
+        <v>0.4172335600907029</v>
       </c>
       <c r="K17">
-        <v>0.0872093023255814</v>
+        <v>0.07256235827664399</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02325581395348837</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N17">
-        <v>0.002906976744186046</v>
+        <v>0.002267573696145125</v>
       </c>
       <c r="O17">
-        <v>0.06395348837209303</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06976744186046512</v>
+        <v>0.07256235827664399</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006369426751592357</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1974522292993631</v>
+        <v>0.1758793969849246</v>
       </c>
       <c r="I18">
-        <v>0.08280254777070063</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="J18">
-        <v>0.4522292993630573</v>
+        <v>0.4321608040201005</v>
       </c>
       <c r="K18">
-        <v>0.07006369426751592</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01910828025477707</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05095541401273886</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1210191082802548</v>
+        <v>0.1256281407035176</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0164765525982256</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2256020278833967</v>
+        <v>0.2270114942528736</v>
       </c>
       <c r="I19">
-        <v>0.09632446134347275</v>
+        <v>0.09386973180076628</v>
       </c>
       <c r="J19">
-        <v>0.3891001267427123</v>
+        <v>0.3927203065134099</v>
       </c>
       <c r="K19">
-        <v>0.08491761723700887</v>
+        <v>0.08908045977011494</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01901140684410646</v>
+        <v>0.0210727969348659</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07984790874524715</v>
+        <v>0.07183908045977011</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08871989860583017</v>
+        <v>0.08716475095785441</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/San Jose St._B.xlsx
+++ b/team_specific_matrix/San Jose St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2172523961661342</v>
+        <v>0.2095808383233533</v>
       </c>
       <c r="C2">
-        <v>0.5111821086261981</v>
+        <v>0.5239520958083832</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01916932907348243</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1597444089456869</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0926517571884984</v>
+        <v>0.09281437125748503</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0245398773006135</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="C3">
-        <v>0.0245398773006135</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01840490797546012</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7361963190184049</v>
+        <v>0.7318435754189944</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.196319018404908</v>
+        <v>0.2067039106145251</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04347826086956522</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6304347826086957</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3260869565217391</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08947368421052632</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F6">
-        <v>0.04736842105263158</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2789473684210526</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03157894736842105</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1736842105263158</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="R6">
-        <v>0.09473684210526316</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="S6">
-        <v>0.2842105263157895</v>
+        <v>0.2932692307692308</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1176470588235294</v>
+        <v>0.1134751773049645</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02205882352941177</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06617647058823529</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1838235294117647</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04411764705882353</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1397058823529412</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R7">
-        <v>0.09558823529411764</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="S7">
-        <v>0.3308823529411765</v>
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0970873786407767</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01699029126213592</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04368932038834952</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09951456310679611</v>
+        <v>0.1065759637188209</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02912621359223301</v>
+        <v>0.02947845804988662</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2111650485436893</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="R8">
-        <v>0.1116504854368932</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="S8">
-        <v>0.3907766990291262</v>
+        <v>0.3922902494331066</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06666666666666667</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0380952380952381</v>
+        <v>0.03587443946188341</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09523809523809523</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1238095238095238</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009523809523809525</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2380952380952381</v>
+        <v>0.2331838565022422</v>
       </c>
       <c r="R9">
-        <v>0.08095238095238096</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="S9">
-        <v>0.3476190476190476</v>
+        <v>0.3497757847533632</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.128337639965547</v>
+        <v>0.1287519747235387</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02583979328165375</v>
+        <v>0.02606635071090047</v>
       </c>
       <c r="E10">
-        <v>0.003445305770887166</v>
+        <v>0.00315955766192733</v>
       </c>
       <c r="F10">
-        <v>0.06546080964685616</v>
+        <v>0.06872037914691943</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1042204995693368</v>
+        <v>0.1066350710900474</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01550387596899225</v>
+        <v>0.01579778830963665</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2213608957795004</v>
+        <v>0.2187993680884676</v>
       </c>
       <c r="R10">
-        <v>0.0913006029285099</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="S10">
-        <v>0.3445305770887166</v>
+        <v>0.3420221169036335</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1155778894472362</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1407035175879397</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="K11">
-        <v>0.2060301507537688</v>
+        <v>0.1990291262135922</v>
       </c>
       <c r="L11">
-        <v>0.5276381909547738</v>
+        <v>0.5388349514563107</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01005025125628141</v>
+        <v>0.009708737864077669</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7321428571428571</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1964285714285714</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="K12">
-        <v>0.008928571428571428</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L12">
-        <v>0.02678571428571428</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03571428571428571</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0196078431372549</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.142156862745098</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="I15">
-        <v>0.08333333333333333</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="J15">
-        <v>0.4117647058823529</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="K15">
-        <v>0.009803921568627451</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01470588235294118</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04901960784313725</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2696078431372549</v>
+        <v>0.2909090909090909</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01530612244897959</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1530612244897959</v>
+        <v>0.1502347417840376</v>
       </c>
       <c r="I16">
-        <v>0.06122448979591837</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="J16">
-        <v>0.4234693877551021</v>
+        <v>0.431924882629108</v>
       </c>
       <c r="K16">
-        <v>0.08673469387755102</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04081632653061224</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05102040816326531</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1683673469387755</v>
+        <v>0.1643192488262911</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.018140589569161</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1972789115646258</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="I17">
-        <v>0.1383219954648526</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="J17">
-        <v>0.4172335600907029</v>
+        <v>0.4322033898305085</v>
       </c>
       <c r="K17">
-        <v>0.07256235827664399</v>
+        <v>0.06991525423728813</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02040816326530612</v>
+        <v>0.01906779661016949</v>
       </c>
       <c r="N17">
-        <v>0.002267573696145125</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="O17">
-        <v>0.06122448979591837</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07256235827664399</v>
+        <v>0.06991525423728813</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01507537688442211</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1758793969849246</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="I18">
-        <v>0.1055276381909548</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="J18">
-        <v>0.4321608040201005</v>
+        <v>0.4375</v>
       </c>
       <c r="K18">
-        <v>0.06532663316582915</v>
+        <v>0.0625</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01507537688442211</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06532663316582915</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1256281407035176</v>
+        <v>0.1201923076923077</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01724137931034483</v>
+        <v>0.01771479185119575</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2270114942528736</v>
+        <v>0.2276350752878654</v>
       </c>
       <c r="I19">
-        <v>0.09386973180076628</v>
+        <v>0.09477413640389726</v>
       </c>
       <c r="J19">
-        <v>0.3927203065134099</v>
+        <v>0.3976970770593445</v>
       </c>
       <c r="K19">
-        <v>0.08908045977011494</v>
+        <v>0.08503100088573959</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0210727969348659</v>
+        <v>0.02037201062887511</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07183908045977011</v>
+        <v>0.06908768821966342</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08716475095785441</v>
+        <v>0.08768821966341896</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/San Jose St._B.xlsx
+++ b/team_specific_matrix/San Jose St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2095808383233533</v>
+        <v>0.2120343839541547</v>
       </c>
       <c r="C2">
-        <v>0.5239520958083832</v>
+        <v>0.5186246418338109</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01796407185628742</v>
+        <v>0.0171919770773639</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.155688622754491</v>
+        <v>0.1547277936962751</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09281437125748503</v>
+        <v>0.09742120343839542</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0223463687150838</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="C3">
-        <v>0.0223463687150838</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01675977653631285</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7318435754189944</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2067039106145251</v>
+        <v>0.2054054054054054</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08653846153846154</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.004807692307692308</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F6">
-        <v>0.04326923076923077</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2788461538461539</v>
+        <v>0.2764976958525346</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03365384615384615</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1730769230769231</v>
+        <v>0.1658986175115207</v>
       </c>
       <c r="R6">
-        <v>0.08653846153846154</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="S6">
-        <v>0.2932692307692308</v>
+        <v>0.2949308755760369</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1134751773049645</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06382978723404255</v>
+        <v>0.0625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1843971631205674</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05673758865248227</v>
+        <v>0.0625</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.148936170212766</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="R7">
-        <v>0.09219858156028368</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="S7">
-        <v>0.3191489361702128</v>
+        <v>0.3194444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09523809523809523</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02040816326530612</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04081632653061224</v>
+        <v>0.04112554112554113</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1065759637188209</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02947845804988662</v>
+        <v>0.02813852813852814</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2063492063492063</v>
+        <v>0.20995670995671</v>
       </c>
       <c r="R8">
-        <v>0.108843537414966</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="S8">
-        <v>0.3922902494331066</v>
+        <v>0.3896103896103896</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07174887892376682</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03587443946188341</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09417040358744394</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1255605381165919</v>
+        <v>0.1260869565217391</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01345291479820628</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2331838565022422</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="R9">
-        <v>0.07623318385650224</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="S9">
-        <v>0.3497757847533632</v>
+        <v>0.3391304347826087</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1287519747235387</v>
+        <v>0.1294027565084227</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02606635071090047</v>
+        <v>0.02526799387442573</v>
       </c>
       <c r="E10">
-        <v>0.00315955766192733</v>
+        <v>0.003062787136294028</v>
       </c>
       <c r="F10">
-        <v>0.06872037914691943</v>
+        <v>0.06891271056661562</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1066350710900474</v>
+        <v>0.1079632465543645</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01579778830963665</v>
+        <v>0.01607963246554365</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2187993680884676</v>
+        <v>0.2166921898928025</v>
       </c>
       <c r="R10">
-        <v>0.09004739336492891</v>
+        <v>0.09341500765696784</v>
       </c>
       <c r="S10">
-        <v>0.3420221169036335</v>
+        <v>0.3392036753445635</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.116504854368932</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1359223300970874</v>
+        <v>0.1327014218009479</v>
       </c>
       <c r="K11">
-        <v>0.1990291262135922</v>
+        <v>0.1990521327014218</v>
       </c>
       <c r="L11">
-        <v>0.5388349514563107</v>
+        <v>0.5450236966824644</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009708737864077669</v>
+        <v>0.009478672985781991</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7166666666666667</v>
+        <v>0.717741935483871</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1916666666666667</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K12">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L12">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04166666666666666</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02272727272727273</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1318181818181818</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="I15">
-        <v>0.07727272727272727</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J15">
-        <v>0.4090909090909091</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="K15">
-        <v>0.00909090909090909</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01363636363636364</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04545454545454546</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2909090909090909</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01408450704225352</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1502347417840376</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="I16">
-        <v>0.05633802816901409</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="J16">
-        <v>0.431924882629108</v>
+        <v>0.4292237442922374</v>
       </c>
       <c r="K16">
-        <v>0.0892018779342723</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03755868544600939</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05633802816901409</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1643192488262911</v>
+        <v>0.1598173515981735</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01694915254237288</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1949152542372881</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="I17">
-        <v>0.1355932203389831</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="J17">
-        <v>0.4322033898305085</v>
+        <v>0.431211498973306</v>
       </c>
       <c r="K17">
-        <v>0.06991525423728813</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01906779661016949</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="N17">
-        <v>0.00211864406779661</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="O17">
-        <v>0.05932203389830509</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06991525423728813</v>
+        <v>0.07186858316221766</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01442307692307692</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1826923076923077</v>
+        <v>0.1973094170403587</v>
       </c>
       <c r="I18">
-        <v>0.1009615384615385</v>
+        <v>0.1076233183856502</v>
       </c>
       <c r="J18">
-        <v>0.4375</v>
+        <v>0.4170403587443946</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01442307692307692</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0673076923076923</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1201923076923077</v>
+        <v>0.1165919282511211</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01771479185119575</v>
+        <v>0.01808785529715762</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2276350752878654</v>
+        <v>0.227390180878553</v>
       </c>
       <c r="I19">
-        <v>0.09477413640389726</v>
+        <v>0.0921619293712317</v>
       </c>
       <c r="J19">
-        <v>0.3976970770593445</v>
+        <v>0.4013781223083548</v>
       </c>
       <c r="K19">
-        <v>0.08503100088573959</v>
+        <v>0.08440999138673558</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02037201062887511</v>
+        <v>0.01981050818260121</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06908768821966342</v>
+        <v>0.06890611541774333</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08768821966341896</v>
+        <v>0.08785529715762273</v>
       </c>
     </row>
   </sheetData>
